--- a/data/income_statement/2digits/size/33_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/33_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>33-Repair and installation of machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>33-Repair and installation of machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,251 +841,286 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1838080.3231</v>
+        <v>1770523.59931</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1754467.68534</v>
+        <v>1688061.98032</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2187896.80248</v>
+        <v>2085317.62613</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2379151.39101</v>
+        <v>2235802.62175</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3202694.92334</v>
+        <v>3013937.23573</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4084089.96739</v>
+        <v>3745033.45062</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5989396.72002</v>
+        <v>5865499.21487</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7225383.42363</v>
+        <v>7139029.906239999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10260334.37622</v>
+        <v>9792046.351670001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>13752905.42777</v>
+        <v>13225229.93237</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16615263.00976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16307229.6706</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18222886.654</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>886698.35259</v>
+        <v>852874.6973199999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1048962.64664</v>
+        <v>1021438.11433</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1387047.32343</v>
+        <v>1326401.39147</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1524324.15952</v>
+        <v>1428613.11212</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2287503.21299</v>
+        <v>2173619.2777</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3137194.93447</v>
+        <v>2932141.77042</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4613650.86208</v>
+        <v>4522092.54153</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5595848.31751</v>
+        <v>5642815.68565</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7237329.772650001</v>
+        <v>6912198.86113</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9118706.447290001</v>
+        <v>8732700.563170001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11022150.84115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10898142.00034</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12110004.053</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>917828.8447</v>
+        <v>886315.3877899999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>679820.39489</v>
+        <v>642456.8545199999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>763881.53876</v>
+        <v>724178.69515</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>807892.9449199999</v>
+        <v>763853.46513</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>869146.0867999999</v>
+        <v>799299.61816</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>872248.82415</v>
+        <v>772805.4881899999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1316733.64595</v>
+        <v>1288809.86676</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1535353.90333</v>
+        <v>1405549.39584</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2955954.71093</v>
+        <v>2824780.73533</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4545217.69217</v>
+        <v>4415312.47249</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5450297.01796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5272998.25868</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5961694.749</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>33553.12581000001</v>
+        <v>31333.5142</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>25684.64381</v>
+        <v>24167.01147</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>36967.94029</v>
+        <v>34737.53951</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>46934.28657</v>
+        <v>43336.0445</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>46045.62355</v>
+        <v>41018.33987</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>74646.20877</v>
+        <v>40086.19201000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>59012.21199</v>
+        <v>54596.80658</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>94181.20279000001</v>
+        <v>90664.82475</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>67049.89264000001</v>
+        <v>55066.75521</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>88981.28831</v>
+        <v>77216.89671000002</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>142815.15065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>136089.41158</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>151187.852</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>26549.86117</v>
+        <v>26065.88781</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>22811.20599</v>
+        <v>22770.26978</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>36481.61357</v>
+        <v>35257.6285</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>38797.0741</v>
+        <v>37790.60393</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>22845.86185</v>
+        <v>20812.72343</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>74448.91906</v>
+        <v>71302.81019</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>114217.87656</v>
+        <v>108425.4669</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>160518.37631</v>
+        <v>201730.55078</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>243740.61777</v>
+        <v>240254.32419</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>345453.1796799999</v>
+        <v>345080.42891</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>434435.86593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>412913.79974</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>466129.509</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>20027.69856</v>
+        <v>19803.73958</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>20313.82916</v>
+        <v>20298.26241</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>31871.95067</v>
+        <v>30647.9656</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>29553.2033</v>
+        <v>28554.93075</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>17950.10127</v>
+        <v>17870.50221</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>71547.5603</v>
+        <v>68491.03129000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>83325.54498000001</v>
+        <v>79053.06984</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>152267.19938</v>
+        <v>151400.7798</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>171248.18126</v>
+        <v>168600.78934</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>200635.94232</v>
+        <v>200332.9913</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>344295.79176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>344278.79054</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>403035.63</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6453.54177</v>
+        <v>6193.527389999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>1893.73345</v>
@@ -1193,412 +1129,462 @@
         <v>3321.7229</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6746.1458</v>
+        <v>6746.02904</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2566.23649</v>
+        <v>2559.33725</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2884.52139</v>
+        <v>2794.94153</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>30846.04837</v>
+        <v>29344.14852</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8126.82213</v>
+        <v>49774.29769000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>71446.18158</v>
+        <v>71157.10393000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>132230.99111</v>
+        <v>132161.19136</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>89360.81543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>67930.53525</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>58255.532</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>68.62084</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>603.64338</v>
+        <v>578.2739200000001</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>1287.94</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2497.725</v>
+        <v>2489.64414</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2329.52409</v>
+        <v>382.88397</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>16.83737</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>46.28321</v>
+        <v>28.24854</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>124.3548</v>
+        <v>555.47329</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1046.25493</v>
+        <v>496.43092</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>12586.24625</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>779.25874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>704.4739499999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4838.347</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1811530.46193</v>
+        <v>1744457.7115</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1731656.47935</v>
+        <v>1665291.71054</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2151415.18891</v>
+        <v>2050059.99763</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2340354.31691</v>
+        <v>2198012.01782</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3179849.06149</v>
+        <v>2993124.5123</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4009641.048330001</v>
+        <v>3673730.64043</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5875178.84346</v>
+        <v>5757073.74797</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7064865.04732</v>
+        <v>6937299.35546</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10016593.75845</v>
+        <v>9551792.027479999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13407452.24809</v>
+        <v>12880149.50346</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16180827.14383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15894315.87086</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17756757.145</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1502277.42075</v>
+        <v>1452553.64999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1473080.23884</v>
+        <v>1410447.64066</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1850286.2148</v>
+        <v>1768041.74652</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2119414.74168</v>
+        <v>1992531.80296</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2907930.27155</v>
+        <v>2740073.2331</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3416229.67903</v>
+        <v>3183612.19462</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4614590.45464</v>
+        <v>4550690.4397</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5643380.639640001</v>
+        <v>5486867.55295</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7853881.012940001</v>
+        <v>7471583.37667</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10238887.55161</v>
+        <v>9894326.82209</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13770566.60917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13490530.41414</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14489524.213</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>390701.00956</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>135348.35874</v>
+        <v>135229.02604</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>164153.50315</v>
+        <v>156728.62287</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>153282.1384</v>
+        <v>140412.88455</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>143563.59869</v>
+        <v>104859.8394</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>140896.09787</v>
+        <v>116391.29434</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>154555.68884</v>
+        <v>137623.911</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>97864.00403999999</v>
+        <v>16493.81437</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>571413.4622599999</v>
+        <v>517446.96777</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>229523.8384</v>
+        <v>194054.3347</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>545016.4103400001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>515876.29768</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>810664.449</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>50650.24387</v>
+        <v>49591.0173</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>76280.31572999999</v>
+        <v>67901.61773</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>186144.9487</v>
+        <v>179806.02588</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>167812.75797</v>
+        <v>158776.27923</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>627778.4425199999</v>
+        <v>614393.80744</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>304491.5903400001</v>
+        <v>278332.70391</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>403121.04631</v>
+        <v>346095.59936</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>498360.20072</v>
+        <v>615760.54897</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3474663.64292</v>
+        <v>3380646.66797</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>816472.0569000001</v>
+        <v>792091.56927</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>902836.16279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>858770.6767899999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>960903.651</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1025099.9383</v>
+        <v>976864.70913</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1243017.92646</v>
+        <v>1189995.56608</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1492779.81112</v>
+        <v>1425353.54707</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1784952.51062</v>
+        <v>1681273.95184</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2107167.84033</v>
+        <v>1991967.89943</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2955665.74662</v>
+        <v>2781567.15646</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4048726.84493</v>
+        <v>4059288.0775</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5044645.159910001</v>
+        <v>4852348.23078</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3805738.00923</v>
+        <v>3571768.764</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>9192397.423559999</v>
+        <v>8907713.62654</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11600045.47675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11396860.39808</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>12713322.446</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>35826.22902000001</v>
+        <v>35396.914</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>18433.63791</v>
+        <v>17321.43081</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>7207.95183</v>
+        <v>6153.5507</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>13367.33469</v>
+        <v>12068.68734</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>29420.39001</v>
+        <v>28851.68683</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>15176.2442</v>
+        <v>7321.03991</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>8186.874559999999</v>
+        <v>7682.85184</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2511.27497</v>
+        <v>2264.95883</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2065.89853</v>
+        <v>1720.97693</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>494.23275</v>
+        <v>467.29158</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>722668.5592900001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>719023.04159</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4633.667</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>309253.04118</v>
+        <v>291904.06151</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>258576.24051</v>
+        <v>254844.06988</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>301128.97411</v>
+        <v>282018.25111</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>220939.57523</v>
+        <v>205480.21486</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>271918.78994</v>
+        <v>253051.2792</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>593411.3692999999</v>
+        <v>490118.44581</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1260588.38882</v>
+        <v>1206383.30827</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1421484.40768</v>
+        <v>1450431.80251</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2162712.74551</v>
+        <v>2080208.65081</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3168564.69648</v>
+        <v>2985822.68137</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2410260.53466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2403785.45672</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3267232.932</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>176890.34667</v>
+        <v>155390.84533</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>188447.96357</v>
+        <v>176456.17263</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>226050.45</v>
+        <v>206916.13743</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>230361.59072</v>
+        <v>208600.88491</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>247720.55784</v>
+        <v>225634.18248</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>389515.03711</v>
+        <v>354097.57992</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>506834.55481</v>
+        <v>456345.5371</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>550360.7540799999</v>
+        <v>586654.19494</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>687295.39448</v>
+        <v>623016.7611900001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>805183.10081</v>
+        <v>758760.60089</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1126751.65323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1109339.65208</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1005818.766</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>103.85088</v>
+        <v>97.16649000000001</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>284.15774</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>729.41044</v>
+        <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>583.20751</v>
+        <v>0</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>964.09653</v>
+        <v>317.64509</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>7572.63774</v>
+        <v>2640.6819</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>10127.83428</v>
+        <v>4737.754059999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>19428.16077</v>
+        <v>15091.94342</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>7396.201950000001</v>
+        <v>2338.92466</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>4773.44417</v>
@@ -1606,206 +1592,236 @@
       <c r="M21" s="48" t="n">
         <v>7056.72031</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>11571.615</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>14288.82064</v>
+        <v>14114.23927</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>14084.97773</v>
+        <v>13880.29351</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>13660.87359</v>
+        <v>13018.08677</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>20536.4833</v>
+        <v>18791.33879</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>25801.0819</v>
+        <v>22265.40557</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>25535.91542</v>
+        <v>22298.07973</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>72335.62767999999</v>
+        <v>62107.17058</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>49664.38042</v>
+        <v>108970.2308</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>158128.43377</v>
+        <v>146936.05135</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>206307.84991</v>
+        <v>186134.63568</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>242473.22252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>236631.2391</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>198457.02</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>162497.67515</v>
+        <v>141179.43957</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>174078.8281</v>
+        <v>162291.72138</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>211660.16597</v>
+        <v>193898.05066</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>209241.89991</v>
+        <v>189809.54612</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>220955.37941</v>
+        <v>203051.13182</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>356406.48395</v>
+        <v>329158.81829</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>424371.09285</v>
+        <v>389500.61246</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>481268.21289</v>
+        <v>462592.02072</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>521770.75876</v>
+        <v>473741.78518</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>594101.8067300001</v>
+        <v>567852.5210399999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>877221.7104000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>865651.6926699999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>795790.1310000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>132362.69451</v>
+        <v>136513.21618</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>70128.27694</v>
+        <v>78387.89724999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>75078.52411</v>
+        <v>75102.11368000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-9422.015489999998</v>
+        <v>-3120.67005</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>24198.2321</v>
+        <v>27417.09672</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>203896.33219</v>
+        <v>136020.86589</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>753753.83401</v>
+        <v>750037.77117</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>871123.6536</v>
+        <v>863777.6075700001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1475417.35103</v>
+        <v>1457191.88962</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2363381.59567</v>
+        <v>2227062.08048</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1283508.88143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1294445.80464</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2261414.166</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>221913.7999</v>
+        <v>128986.44037</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>273911.62628</v>
+        <v>219184.40467</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>506877.36331</v>
+        <v>293181.76114</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>343670.5806</v>
+        <v>232269.17381</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>677888.33027</v>
+        <v>456378.4786099999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>840405.8396599999</v>
+        <v>646236.11071</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1198927.8735</v>
+        <v>846234.95441</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1152899.89532</v>
+        <v>1014065.69023</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1500267.79407</v>
+        <v>1368361.2391</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3465055.87522</v>
+        <v>3215457.75159</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1984659.96286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1915433.03835</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3176713.572</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>13201.6496</v>
+        <v>2376.30842</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1648.37647</v>
+        <v>546.3987</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1923.08703</v>
+        <v>1916.96465</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>9278.068130000001</v>
+        <v>123.17548</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>12504.93121</v>
+        <v>4024.56694</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4407.69933</v>
+        <v>1585.44117</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>10405.6377</v>
+        <v>1581.95918</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>9186.72525</v>
+        <v>4218.729679999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4121.5926</v>
+        <v>3605.7426</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>32523.86738</v>
+        <v>31683.86738</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>65437.34528</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>10989.1</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1832,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3334.88822</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>24668.93991</v>
+        <v>12412.24739</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>17702.59487</v>
+        <v>12987.67098</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>15895.65655</v>
+        <v>12645.55872</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>17803.70769</v>
+        <v>13606.04995</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>20827.45729</v>
+        <v>16921.32294</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16464.11912</v>
+        <v>11097.25004</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>24064.34058</v>
+        <v>22621.15326</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>32552.97649</v>
+        <v>27536.27684</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>58982.99456</v>
+        <v>51506.82101</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>45893.94001000001</v>
+        <v>40014.14047000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>68708.28143999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>61033.54727</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>61308.768</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>222.07845</v>
@@ -1892,25 +1918,25 @@
         <v>49.54658999999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>226.57698</v>
+        <v>210.50805</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>217.71611</v>
+        <v>204.22273</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>389.35248</v>
+        <v>385.74705</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>685.0213299999999</v>
+        <v>681.64475</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>848.5010800000001</v>
+        <v>839.75001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6940.72772</v>
+        <v>6912.040309999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>907.07287</v>
+        <v>877.34101</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>1072.49096</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1105.32679</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>9109.289000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>7870.534019999999</v>
@@ -1931,115 +1962,130 @@
         <v>19.20196</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>217.03198</v>
+        <v>12.08621</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4859.44649</v>
+        <v>4661.29009</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3079.64475</v>
+        <v>3076.55475</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4266.75772</v>
+        <v>2680.57777</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4371.14694</v>
+        <v>1325.07718</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3720.85522</v>
+        <v>2917.02278</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>14870.24953</v>
+        <v>12807.18693</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>19447.97876</v>
+        <v>17928.85872</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>21696.93225</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2124.809</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>62.90174</v>
+        <v>14.27847</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>23.26333</v>
+        <v>20.52292</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>11.82932</v>
+        <v>8.817860000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1819.5691</v>
+        <v>10.4095</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>10.32314</v>
+        <v>7.91405</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>54.09341999999999</v>
+        <v>36.01081</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>8000.962449999999</v>
+        <v>32.40681</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>665.50563</v>
+        <v>657.68525</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>386.6295</v>
+        <v>19.78439</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3454.2955</v>
+        <v>3437.67245</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>247.78226</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1185.758</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>156234.24394</v>
+        <v>92554.75768000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>157475.82244</v>
+        <v>111984.657</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>415940.14156</v>
+        <v>210358.85601</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>253608.33487</v>
+        <v>159648.04231</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>607042.6995099999</v>
+        <v>400695.87723</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>759043.0226</v>
+        <v>578647.0070099999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1106367.7644</v>
+        <v>778960.26647</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1030893.9382</v>
+        <v>916474.2864099999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1313169.69413</v>
+        <v>1206890.56722</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3245576.85143</v>
+        <v>3008737.26652</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1579747.27987</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1521461.57927</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2918652.021</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>42825.9294</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>19653.45224</v>
+        <v>13536.23594</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>96755.01068000001</v>
+        <v>93338.59658</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>72642.63989000001</v>
+        <v>68008.56964</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>56083.73821</v>
+        <v>54015.98375</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>34033.92189</v>
+        <v>31266.49565</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>55485.12614</v>
+        <v>51508.17916</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>44869.52034999999</v>
+        <v>40874.3415</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>68939.16681</v>
+        <v>55349.64896</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>104494.67266</v>
+        <v>92653.79594</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>117086.45118</v>
+        <v>112583.45509</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>204891.08557</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>201624.59583</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>173343.827</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>191588.31711</v>
+        <v>121145.14984</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>245799.04935</v>
+        <v>195424.94207</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>425452.68082</v>
+        <v>248308.5037</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>329511.67543</v>
+        <v>209830.06555</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>687809.5504699999</v>
+        <v>478323.26355</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>832282.35098</v>
+        <v>674608.2621000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1317364.69729</v>
+        <v>1025243.53428</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1201793.18626</v>
+        <v>1092455.14448</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1384864.1489</v>
+        <v>1267671.76903</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3484608.51951</v>
+        <v>3108436.4652</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1848051.97373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1791072.64</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3588942.666</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>33.62952</v>
+        <v>13.14931</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>9.55964</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>425.80274</v>
+        <v>10.0954</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2498.24482</v>
+        <v>2417.08393</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1097.12823</v>
+        <v>579.57924</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1489.21142</v>
+        <v>60.24961</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1698.05074</v>
+        <v>1254.89775</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2984.90848</v>
+        <v>2699.46022</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8382.86124</v>
+        <v>3568.55336</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>0.0126</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>5509.659</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>12702.72031</v>
@@ -2243,37 +2314,42 @@
         <v>19257.96011</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4876.33467</v>
+        <v>3197.2221</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>38285.48485</v>
+        <v>7621.62761</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5023.1223</v>
+        <v>4875.347299999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4450.083820000001</v>
+        <v>1152.11469</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7819.49627</v>
+        <v>5476.73707</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>17702.09718</v>
+        <v>16057.9489</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2787.71412</v>
+        <v>2214.4057</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>19711.86891</v>
+        <v>3995.07495</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>36603.55997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>35416.0728</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>35517.492</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2282,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>7.7344</v>
+        <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>195.4263</v>
+        <v>57.7983</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>0</v>
@@ -2294,13 +2370,13 @@
         <v>3.62785</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>8.006170000000001</v>
+        <v>5.784920000000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>3887.14586</v>
+        <v>3885.744</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>97.70469</v>
+        <v>20.21985</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>165411.07602</v>
+        <v>99176.76501999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>143943.35619</v>
+        <v>106660.6031</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>364358.93997</v>
+        <v>193387.30136</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>244685.53514</v>
+        <v>157079.64175</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>650235.2041399999</v>
+        <v>446158.89852</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>781775.3738099999</v>
+        <v>634328.1429399999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1275438.52628</v>
+        <v>989801.00631</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1134301.63687</v>
+        <v>1029604.40549</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1313966.92432</v>
+        <v>1204915.68849</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3392707.61658</v>
+        <v>3034726.1659</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1645975.2186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1590183.37204</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3417654.739</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>13440.89126</v>
+        <v>9252.5152</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>82588.17341</v>
+        <v>69496.81922</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>55783.86904</v>
+        <v>51713.88484000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>43846.98432</v>
+        <v>42653.91396</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>31454.0958</v>
+        <v>26709.43849</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>44564.05408</v>
+        <v>39064.12701</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>32400.61783</v>
+        <v>28705.10823</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>42732.39787000001</v>
+        <v>40207.58587</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>59628.94453</v>
+        <v>56952.90162999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>72189.02142</v>
+        <v>69715.21175</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>165473.19516</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>130260.776</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>48517.77675</v>
+        <v>30056.63401</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>31314.69034</v>
+        <v>16132.23056</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>58542.72068999999</v>
+        <v>16564.48792</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>50761.59572</v>
+        <v>25051.04953</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>139570.76423</v>
+        <v>34789.0808</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>138180.65839</v>
+        <v>59983.94594</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>218812.08353</v>
+        <v>100078.24125</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>176347.04572</v>
+        <v>102715.93782</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>188920.45089</v>
+        <v>115363.85667</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>192139.79591</v>
+        <v>138833.7843</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>154376.83169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>148351.94928</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>219450.968</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>43824.47189</v>
+        <v>30050.39782</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>19308.84352</v>
+        <v>15253.93425</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>27424.51199</v>
+        <v>15182.81878</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>39943.60768</v>
+        <v>21396.00325</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>54981.43518</v>
+        <v>34479.08979</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>46568.20018</v>
+        <v>31248.44214</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>65054.7335</v>
+        <v>43692.10341</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>68376.96570999999</v>
+        <v>56289.17593</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>94664.62897000001</v>
+        <v>61814.84346</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>127618.85086</v>
+        <v>80695.39483</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>133641.47809</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>127616.59568</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>126477.777</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>4693.30486</v>
+        <v>6.23619</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>12005.84682</v>
+        <v>878.2963100000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>31118.2087</v>
+        <v>1381.66914</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>10817.98804</v>
+        <v>3655.04628</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>84589.32905</v>
+        <v>309.99101</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>91612.45821</v>
+        <v>28735.5038</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>153757.35003</v>
+        <v>56386.13784</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>107970.08001</v>
+        <v>46426.76189</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>94255.82192</v>
+        <v>53549.01321</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>64520.94504999999</v>
+        <v>58138.38947</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>20735.3536</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>92973.19100000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>114170.40055</v>
+        <v>114297.8727</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>66926.16353000001</v>
+        <v>86015.12929</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>97960.48591000002</v>
+        <v>103410.8832</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-46024.70604</v>
+        <v>-5732.611320000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-125293.75233</v>
+        <v>-29316.76902</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>73839.16247999998</v>
+        <v>47664.76856</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>416504.92669</v>
+        <v>470950.95005</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>645883.31694</v>
+        <v>682672.2155</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1401900.54531</v>
+        <v>1442517.50302</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2151689.15547</v>
+        <v>2195249.58257</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1265740.03887</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1270454.25371</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1629734.104</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>39174.69421</v>
+        <v>9616.953879999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>11739.57884</v>
+        <v>8790.968350000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>20569.45736</v>
+        <v>14217.197</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>47252.94396</v>
+        <v>8339.022780000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>45545.94865000001</v>
+        <v>20380.73608</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>107470.0024</v>
+        <v>17184.54073</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>203689.53392</v>
+        <v>70485.51869</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>149887.44892</v>
+        <v>37401.49227</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>43526.0242</v>
+        <v>36067.87343</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>38972.2311</v>
+        <v>37360.78662000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>195346.46567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>192328.81219</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>120721.901</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3450.82397</v>
+        <v>3302.28215</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3814.63973</v>
+        <v>2845.76525</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1757.2443</v>
+        <v>1687.83468</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>419.63732</v>
+        <v>168.47222</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>871.20037</v>
+        <v>492.42519</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>195.87312</v>
+        <v>109.30534</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>767.9736800000001</v>
+        <v>624.15757</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1042.23545</v>
+        <v>654.02064</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4275.337759999999</v>
+        <v>3392.41547</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>963.33509</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6767.67931</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6763.88675</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>294.835</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>35723.87024</v>
+        <v>6314.671729999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7924.939109999999</v>
+        <v>5945.2031</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>18812.21306</v>
+        <v>12529.36232</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>46833.30664</v>
+        <v>8170.550560000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>44674.74828</v>
+        <v>19888.31089</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>107274.12928</v>
+        <v>17075.23539</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>202921.56024</v>
+        <v>69861.36112</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>148845.21347</v>
+        <v>36747.47163</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>39250.68644</v>
+        <v>32675.45796</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>38008.89601</v>
+        <v>36397.45153</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>188578.78636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>185564.92544</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>120427.066</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>25695.30191</v>
+        <v>24161.45732</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>60685.16785</v>
+        <v>29658.91019</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>103910.82996</v>
+        <v>66788.666</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>70019.60244999999</v>
+        <v>25051.26207</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>53255.20922</v>
+        <v>34582.21908</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>87615.05934000001</v>
+        <v>13922.31239</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>89337.20020000001</v>
+        <v>46766.05248999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>116126.27334</v>
+        <v>57225.99752</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>62498.7675</v>
+        <v>30866.20393</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>106734.06346</v>
+        <v>104886.53835</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>237466.72182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>234689.30711</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>113022.911</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>237.8611</v>
@@ -2792,16 +2933,16 @@
         <v>90.33316000000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>517.60912</v>
+        <v>26.1338</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1548.32433</v>
+        <v>1048.70071</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1431.58013</v>
+        <v>662.21666</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3549.35209</v>
+        <v>3525.9144</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>7580.657490000001</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>1872.22501</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>4847.073</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9413.850339999999</v>
+        <v>8146.12196</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>11261.03424</v>
+        <v>10718.52484</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3457.13531</v>
+        <v>2843.3454</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6260.49706</v>
+        <v>246.39445</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4361.55016</v>
+        <v>3960.53226</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2271.34608</v>
+        <v>460.0197</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7637.809139999999</v>
+        <v>6471.11905</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>16616.97337</v>
+        <v>16233.25217</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>10498.68417</v>
+        <v>10152.20721</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>65240.74928</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>71121.94893000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>71114.15998000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>24830.664</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>16043.59047</v>
+        <v>15777.47426</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>48505.65726</v>
+        <v>18021.909</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>100363.36149</v>
+        <v>63854.98744</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>63241.49627</v>
+        <v>24778.73382</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>47345.33473</v>
+        <v>29572.98611</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>83912.13313</v>
+        <v>12800.07603</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>78150.03896999999</v>
+        <v>36769.01904</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>91928.64248000001</v>
+        <v>33412.08786</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>46523.18729</v>
+        <v>15237.10068</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>41296.57844</v>
+        <v>39449.05333</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>164472.54788</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>161702.92212</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>83345.174</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>127649.79285</v>
+        <v>99753.36925999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>17980.57452</v>
+        <v>65147.18745</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>14619.11331</v>
+        <v>50839.41420000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-68791.36453000001</v>
+        <v>-22444.85061</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-133003.0129</v>
+        <v>-43518.25201999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>93694.10553999999</v>
+        <v>50926.99690000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>530857.26041</v>
+        <v>494670.41625</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>679644.49252</v>
+        <v>662847.71025</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1382927.80201</v>
+        <v>1447719.17252</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2083927.32311</v>
+        <v>2127723.83084</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1223619.78272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1228093.75879</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1637433.094</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>27294.42107</v>
+        <v>26075.02541</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>24393.98966</v>
+        <v>24126.40242</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>33135.242</v>
+        <v>32134.44867</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>19148.95215</v>
+        <v>17709.09965</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>15942.87748</v>
+        <v>14656.13911</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>31795.20642</v>
+        <v>26756.73332</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>83857.20053</v>
+        <v>76915.96053</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>163182.76086</v>
+        <v>155032.34048</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>266205.351</v>
+        <v>259869.24542</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>360544.6725800001</v>
+        <v>355257.03213</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>60273.95152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>59896.35376000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>149500.149</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>100355.37178</v>
+        <v>73678.34385</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-6413.41514</v>
+        <v>41020.78503</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-18516.12869</v>
+        <v>18704.96553</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-87940.31668</v>
+        <v>-40153.95026</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-148945.89038</v>
+        <v>-58174.39113</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>61898.89912</v>
+        <v>24170.26358</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>447000.05988</v>
+        <v>417754.45572</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>516461.73166</v>
+        <v>507815.36977</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1116722.45101</v>
+        <v>1187849.9271</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1723382.65053</v>
+        <v>1772466.79871</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1163345.8312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1168197.40503</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1487932.945</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>16</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>17</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>19</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>23</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>24</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>30</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>34</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>35</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>29</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>32</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>37</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>39</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>47</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>56</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>64</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>64</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>36</v>
-      </c>
       <c r="M59" s="35" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>